--- a/view/object/xlsx/split.xlsx
+++ b/view/object/xlsx/split.xlsx
@@ -1,118 +1,211 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="120" yWindow="525" windowWidth="14055" windowHeight="6600"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
-    <sheet name="Worksheet 1" sheetId="2" r:id="rId5"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet 1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0"/>
+  <calcPr calcId="999999"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
-  <si>
-    <t>canopy</t>
-  </si>
-  <si>
-    <t>captor</t>
-  </si>
-  <si>
-    <t>caravan</t>
-  </si>
-  <si>
-    <t>caress</t>
-  </si>
-  <si>
-    <t>caret</t>
-  </si>
-  <si>
-    <t>cassock</t>
-  </si>
-  <si>
-    <t>catapult</t>
-  </si>
-  <si>
-    <t>cater</t>
-  </si>
-  <si>
-    <t>cavern</t>
-  </si>
-  <si>
-    <t>cease</t>
-  </si>
-  <si>
-    <t>chapel</t>
-  </si>
-  <si>
-    <t>charitable</t>
-  </si>
-  <si>
-    <t>charity</t>
-  </si>
-  <si>
-    <t>bad # নাই</t>
-  </si>
-  <si>
-    <t>ক্যানাপি</t>
-  </si>
-  <si>
-    <t>কেপ্‌টা</t>
-  </si>
-  <si>
-    <t>কেরাভেন্‌</t>
-  </si>
-  <si>
-    <t>কারেস্‌</t>
-  </si>
-  <si>
-    <t>কেরাট্‌</t>
-  </si>
-  <si>
-    <t>কেসাক্‌</t>
-  </si>
-  <si>
-    <t>কেটাপুল্‌ট্‌</t>
-  </si>
-  <si>
-    <t>কেইটা</t>
-  </si>
-  <si>
-    <t>কেভান্‌</t>
-  </si>
-  <si>
-    <t>সীস্‌</t>
-  </si>
-  <si>
-    <t>চ্যাপল্‌</t>
-  </si>
-  <si>
-    <t>চেরিটেবল্‌</t>
-  </si>
-  <si>
-    <t>চেরিটি</t>
-  </si>
-  <si>
-    <t>মন্দ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+  <si>
+    <t>চৌক্‌</t>
+  </si>
+  <si>
+    <t>এব্‌লূশন্‌</t>
+  </si>
+  <si>
+    <t>অ্যাবোলিশোনিস্ট</t>
+  </si>
+  <si>
+    <t>এব্‌রেইশন্‌</t>
+  </si>
+  <si>
+    <t>এবস্‌টিনেন্‌ট্‌</t>
+  </si>
+  <si>
+    <t>একিউমিউলেইটা</t>
+  </si>
+  <si>
+    <t>এডামান্‌ট্‌</t>
+  </si>
+  <si>
+    <t>এডারেইশন্‌</t>
+  </si>
+  <si>
+    <t>এডো</t>
+  </si>
+  <si>
+    <t>এড্‌ভান্‌ট্‌</t>
+  </si>
+  <si>
+    <t>এল্‌কোহোলিক্‌</t>
+  </si>
+  <si>
+    <t>এলিগেইটা</t>
+  </si>
+  <si>
+    <t>আম্‌জ্‌</t>
+  </si>
+  <si>
+    <t>এল্‌ফাবেটিকল্‌</t>
+  </si>
+  <si>
+    <t>এমিস্‌</t>
+  </si>
+  <si>
+    <t>এনাটামি</t>
+  </si>
+  <si>
+    <t>এন্‌থেম্‌</t>
+  </si>
+  <si>
+    <t>এপাচা</t>
+  </si>
+  <si>
+    <t>এপ্রিহেন্‌শন্‌</t>
+  </si>
+  <si>
+    <t>এপ্রাইজ্‌</t>
+  </si>
+  <si>
+    <t>এরাবল্‌</t>
+  </si>
+  <si>
+    <t>আডেন্‌ট্‌</t>
+  </si>
+  <si>
+    <t>আস্‌ক্রাইব্‌</t>
+  </si>
+  <si>
+    <t>এস্‌টারিস্‌ক্‌</t>
+  </si>
+  <si>
+    <t>ওটামেইট্‌</t>
+  </si>
+  <si>
+    <t>ওগ্‌জিলিয়ারি</t>
+  </si>
+  <si>
+    <t>এভেটা</t>
+  </si>
+  <si>
+    <t>এভিড্‌</t>
+  </si>
+  <si>
+    <t>আরাই</t>
+  </si>
+  <si>
+    <t>ব্যফ্‌ল্‌</t>
+  </si>
+  <si>
+    <t>বেলৌনি</t>
+  </si>
+  <si>
+    <t>বেনিশ্‌</t>
+  </si>
+  <si>
+    <t>বাড্‌</t>
+  </si>
+  <si>
+    <t>বান্‌</t>
+  </si>
+  <si>
+    <t>ব্লোক্‌</t>
+  </si>
+  <si>
+    <t>বেড্‌লাম্‌</t>
+  </si>
+  <si>
+    <t>বিগ্রাজ্‌</t>
+  </si>
+  <si>
+    <t>বেনিফিশল্‌</t>
+  </si>
+  <si>
+    <t>বিস্টা</t>
+  </si>
+  <si>
+    <t>বিয়া</t>
+  </si>
+  <si>
+    <t>বিলাউ্‌</t>
+  </si>
+  <si>
+    <t>বিন্‌</t>
+  </si>
+  <si>
+    <t>বাইসেক্সুল</t>
+  </si>
+  <si>
+    <t>বিজা</t>
+  </si>
+  <si>
+    <t>ব্লিজাড্‌</t>
+  </si>
+  <si>
+    <t>ব্লৌট্‌</t>
+  </si>
+  <si>
+    <t>ব্লাবা</t>
+  </si>
+  <si>
+    <t>বোগ্‌</t>
+  </si>
+  <si>
+    <t>বৌল্‌ট্‌</t>
+  </si>
+  <si>
+    <t>বরৌ</t>
+  </si>
+  <si>
+    <t>বৌল্ডা</t>
+  </si>
+  <si>
+    <t>ব্রেইস্‌</t>
+  </si>
+  <si>
+    <t>ব্রেইল্‌</t>
+  </si>
+  <si>
+    <t>ব্রল্‌</t>
+  </si>
+  <si>
+    <t>ব্রিক্‌</t>
+  </si>
+  <si>
+    <t>বাক্‌</t>
+  </si>
+  <si>
+    <t>বাজ্‌</t>
+  </si>
+  <si>
+    <t>কেমাফ্লাজ্‌</t>
+  </si>
+  <si>
+    <t>কেন্‌সল্‌</t>
+  </si>
+  <si>
+    <t>কেন্‌ডিডেট্‌</t>
+  </si>
+  <si>
+    <t>কিল্‌ন্‌</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -123,28 +216,29 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -434,17 +528,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A39" sqref="A1:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -516,117 +610,267 @@
         <v>13</v>
       </c>
     </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>27</v>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>